--- a/src/testdata/testdata2.xlsx
+++ b/src/testdata/testdata2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micro\dev\mPDF\mpdf\src\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micro\dev\mPDF\src\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10288103-DA3B-488B-B0DB-8476430A84A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB095B7-1F89-4C08-8510-89FEC0306B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="18720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,6 +57,13 @@
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="48"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -80,8 +87,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -364,17 +372,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="27.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="76.5">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -389,17 +400,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E876870-D09F-49AF-B7DE-30C7DF922326}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="27.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="76.5">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
